--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H2">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>175.1609550759102</v>
+        <v>683.1960554783519</v>
       </c>
       <c r="R2">
-        <v>175.1609550759102</v>
+        <v>6148.764499305167</v>
       </c>
       <c r="S2">
-        <v>0.000341359439818813</v>
+        <v>0.00129178319820566</v>
       </c>
       <c r="T2">
-        <v>0.000341359439818813</v>
+        <v>0.00129178319820566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H3">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>176.2545557259295</v>
+        <v>645.5553647470459</v>
       </c>
       <c r="R3">
-        <v>176.2545557259295</v>
+        <v>5809.998282723414</v>
       </c>
       <c r="S3">
-        <v>0.0003434906847935523</v>
+        <v>0.001220612395233866</v>
       </c>
       <c r="T3">
-        <v>0.0003434906847935523</v>
+        <v>0.001220612395233866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H4">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>205.6187389040197</v>
+        <v>757.1440657908487</v>
       </c>
       <c r="R4">
-        <v>205.6187389040197</v>
+        <v>6814.296592117638</v>
       </c>
       <c r="S4">
-        <v>0.0004007165723554571</v>
+        <v>0.001431603673596928</v>
       </c>
       <c r="T4">
-        <v>0.0004007165723554571</v>
+        <v>0.001431603673596928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>155774.6172308963</v>
+        <v>166615.6598173949</v>
       </c>
       <c r="R5">
-        <v>155774.6172308963</v>
+        <v>1499540.938356554</v>
       </c>
       <c r="S5">
-        <v>0.303578705955811</v>
+        <v>0.3150359376114409</v>
       </c>
       <c r="T5">
-        <v>0.303578705955811</v>
+        <v>0.3150359376114409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>156747.1811369699</v>
+        <v>157435.9690509019</v>
       </c>
       <c r="R6">
-        <v>156747.1811369699</v>
+        <v>1416923.721458117</v>
       </c>
       <c r="S6">
-        <v>0.3054740705364701</v>
+        <v>0.2976790307590199</v>
       </c>
       <c r="T6">
-        <v>0.3054740705364701</v>
+        <v>0.2976790307590199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>182861.4164292049</v>
+        <v>184649.863076624</v>
       </c>
       <c r="R7">
-        <v>182861.4164292049</v>
+        <v>1661848.767689616</v>
       </c>
       <c r="S7">
-        <v>0.3563663525909427</v>
+        <v>0.3491349060941946</v>
       </c>
       <c r="T7">
-        <v>0.3563663525909427</v>
+        <v>0.3491349060941945</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H8">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I8">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J8">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>5404.614469186935</v>
+        <v>5925.328317127872</v>
       </c>
       <c r="R8">
-        <v>5404.614469186935</v>
+        <v>53327.95485415084</v>
       </c>
       <c r="S8">
-        <v>0.01053269072915688</v>
+        <v>0.01120357692720979</v>
       </c>
       <c r="T8">
-        <v>0.01053269072915688</v>
+        <v>0.01120357692720979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H9">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I9">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J9">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>5438.357662092255</v>
+        <v>5598.872318329256</v>
       </c>
       <c r="R9">
-        <v>5438.357662092255</v>
+        <v>50389.8508649633</v>
       </c>
       <c r="S9">
-        <v>0.01059845057513892</v>
+        <v>0.01058631578991263</v>
       </c>
       <c r="T9">
-        <v>0.01059845057513892</v>
+        <v>0.01058631578991263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H10">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I10">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J10">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>6344.393423380406</v>
+        <v>6566.67604738242</v>
       </c>
       <c r="R10">
-        <v>6344.393423380406</v>
+        <v>59100.08442644177</v>
       </c>
       <c r="S10">
-        <v>0.01236416291551237</v>
+        <v>0.01241623355118588</v>
       </c>
       <c r="T10">
-        <v>0.01236416291551237</v>
+        <v>0.01241623355118588</v>
       </c>
     </row>
   </sheetData>
